--- a/models/feat_importance_feature_selection.xlsx
+++ b/models/feat_importance_feature_selection.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.688888888888889</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.9</v>
+        <v>4.944444444444445</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.433333333333334</v>
+        <v>4.622222222222222</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.211111111111111</v>
+        <v>4.433333333333334</v>
       </c>
     </row>
     <row r="6">
@@ -492,57 +492,57 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.122222222222223</v>
+        <v>3.855555555555556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>qtd_pedidos_hub_ultima_1h</t>
+          <t>distancia_entrega_metros</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.655555555555555</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>qtd_pedidos_hub_ultima_3h</t>
+          <t>tempo_producao_pedido_lag1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.622222222222223</v>
+        <v>3.577777777777778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>distancia_entrega_metros</t>
+          <t>qtd_pedidos_hub_ultima_3h</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.533333333333334</v>
+        <v>3.522222222222223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tempo_producao_pedido_lag1</t>
+          <t>qtd_pedidos_hub_ultima_1h</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.311111111111111</v>
+        <v>3.366666666666666</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>escore_complexidade_pedido_valor</t>
+          <t>variabilidade_entrega_loja_mm7</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.077777777777778</v>
+        <v>3.344444444444444</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.988888888888889</v>
+        <v>3.255555555555555</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.911111111111111</v>
+        <v>3.077777777777778</v>
       </c>
     </row>
     <row r="14">
@@ -572,37 +572,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.866666666666667</v>
+        <v>3.011111111111111</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>valor_pedido_loja_mm7</t>
+          <t>escore_complexidade_pedido_valor</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.733333333333333</v>
+        <v>2.888888888888889</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>variabilidade_entrega_loja_mm7</t>
+          <t>valor_pedido_loja_mm7</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.655555555555555</v>
+        <v>2.622222222222222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>zscore_distancia_hub</t>
+          <t>zscore_distancia_loja</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.577777777777778</v>
+        <v>2.422222222222222</v>
       </c>
     </row>
     <row r="18">
@@ -612,57 +612,57 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.477777777777778</v>
+        <v>2.411111111111111</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>distancia_pedido_anterior_loja</t>
+          <t>zscore_distancia_hub</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.322222222222222</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>intensidade_horaria_loja</t>
+          <t>variabilidade_producao_pedido_loja_mm7</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.233333333333333</v>
+        <v>2.266666666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>variabilidade_producao_pedido_loja_mm7</t>
+          <t>std_entregas_loja_hora</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.1</v>
+        <v>2.155555555555556</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>std_entregas_loja_hora</t>
+          <t>distancia_pedido_anterior_loja</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.088888888888889</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>zscore_distancia_loja</t>
+          <t>intensidade_horaria_loja</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.077777777777778</v>
+        <v>1.988888888888889</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.022222222222222</v>
+        <v>1.922222222222222</v>
       </c>
     </row>
     <row r="25">
@@ -682,47 +682,47 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.9</v>
+        <v>1.766666666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>std_entregas_entregador_hora</t>
+          <t>std_distancia_loja</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.744444444444444</v>
+        <v>1.766666666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>std_distancia_loja</t>
+          <t>media_distancia_hub</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.688888888888889</v>
+        <v>1.755555555555556</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>media_distancia_hub</t>
+          <t>media_entregas_entregador_hora</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.666666666666667</v>
+        <v>1.633333333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>taxa_entrega_cliente_loja_mm7</t>
+          <t>tortuosidade_trajeto</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.522222222222222</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30">
@@ -732,17 +732,17 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.5</v>
+        <v>1.466666666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>tortuosidade_trajeto</t>
+          <t>taxa_entrega_cliente_loja_mm7</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.433333333333333</v>
+        <v>1.411111111111111</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.4</v>
+        <v>1.344444444444445</v>
       </c>
     </row>
     <row r="33">
@@ -762,27 +762,27 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.133333333333333</v>
+        <v>1.266666666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>cidade_hub</t>
+          <t>fl_modal_entregador</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.111111111111111</v>
+        <v>1.011111111111111</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>fl_modal_entregador</t>
+          <t>cidade_hub</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9111111111111112</v>
       </c>
     </row>
     <row r="36">
@@ -792,17 +792,17 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>qtd_pedidos_loja_ultima_2h</t>
+          <t>qtd_pedidos_loja_ultima_1h</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5888888888888889</v>
+        <v>0.5222222222222221</v>
       </c>
     </row>
     <row r="38">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.4777777777777777</v>
+        <v>0.4888888888888889</v>
       </c>
     </row>
     <row r="39">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.4222222222222222</v>
+        <v>0.3777777777777778</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3111111111111111</v>
+        <v>0.2444444444444444</v>
       </c>
     </row>
     <row r="42">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
   </sheetData>
